--- a/biology/Médecine/1305_en_santé_et_médecine/1305_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1305_en_santé_et_médecine/1305_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1305 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le chirurgien Leroy de Malines est appelé à Lyon auprès de Jean II, duc de Bretagne, mortellement blessé par l'écroulement d'un mur[1].
-Fondation d'un hôpital « pour les pauvres » (« para pobres ») à Saragosse en Aragon, par le médecin Guillermo Fuerte[2].
-L'évêque de Poitiers, Gautier de Bruges, recommande « que des laïcs soient nommés à la tête des aumôneries, en raison de l'absentéisme des clercs[3] ».
-L'empereur mongol Témur Khan, successeur de Kublai Khan, ordonne que le diagnostic par le pouls soit considéré comme la principale des dix matières à examen, aux études de l'Académie impériale de médecine (T'ai-i yuan[4]).
-Rare cas documenté de césarienne au Moyen Âge, Giordano da Rivalto (it) (1260-1311), dominicain de Florence, fait appel à des médecins et à des sages-femmes pour pratiquer l'opération sur une femme morte[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le chirurgien Leroy de Malines est appelé à Lyon auprès de Jean II, duc de Bretagne, mortellement blessé par l'écroulement d'un mur.
+Fondation d'un hôpital « pour les pauvres » (« para pobres ») à Saragosse en Aragon, par le médecin Guillermo Fuerte.
+L'évêque de Poitiers, Gautier de Bruges, recommande « que des laïcs soient nommés à la tête des aumôneries, en raison de l'absentéisme des clercs ».
+L'empereur mongol Témur Khan, successeur de Kublai Khan, ordonne que le diagnostic par le pouls soit considéré comme la principale des dix matières à examen, aux études de l'Académie impériale de médecine (T'ai-i yuan).
+Rare cas documenté de césarienne au Moyen Âge, Giordano da Rivalto (it) (1260-1311), dominicain de Florence, fait appel à des médecins et à des sages-femmes pour pratiquer l'opération sur une femme morte.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5 février : le médecin français Bernard de Gordon dédicace aux étudiants et aux jeunes médecins sa Practica seu Lilium medicine[6], traité de médecine pratique qui restera abondamment consulté jusque dans les premières décennies du XVIIe siècle[7].
-Vers 1305 : Pierre de Crescent rédige son traité d'agriculture (Ruralium commodorum opus), où la médecine vétérinaire occupe une place essentielle et dont, sur cinquante-sept chapitres consacrés aux soins à apporter aux chevaux, quarante-huit le sont exclusivement à leurs maladies[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 février : le médecin français Bernard de Gordon dédicace aux étudiants et aux jeunes médecins sa Practica seu Lilium medicine, traité de médecine pratique qui restera abondamment consulté jusque dans les premières décennies du XVIIe siècle.
+Vers 1305 : Pierre de Crescent rédige son traité d'agriculture (Ruralium commodorum opus), où la médecine vétérinaire occupe une place essentielle et dont, sur cinquante-sept chapitres consacrés aux soins à apporter aux chevaux, quarante-huit le sont exclusivement à leurs maladies.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,16 +592,18 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Albayrac, médecin, sans doute à Rodez[9].
-Fl. Astruc, médecin juif de Carcassonne, comme son père Isaac[10].
-Fl. Bonjudas[10] et David Bonsenior, médecins juifs de Narbonne[10].
-Fl. Colin Andrieu, barbier à Castelsarrasin[10].
-Fl. Durand Martin, médecin, fondateur d'une chapellenie à Mende, en Gévaudan[10].
-Fl. Jean, barbier de Jean de Bellevesvre, seigneur de Chay[10].
-1305-1309 : fl. Jean de Fonte, médecin de Marguerite de France, reine d'Angleterre[9].
-1305-1322 : fl. Guillaume de Brescia (de), médecin du pape Clément V à Avignon, auteur de Questiones de tyriaca (« Questions sur la thériaque ») influencées par Arnaud de Villeneuve[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Albayrac, médecin, sans doute à Rodez.
+Fl. Astruc, médecin juif de Carcassonne, comme son père Isaac.
+Fl. Bonjudas et David Bonsenior, médecins juifs de Narbonne.
+Fl. Colin Andrieu, barbier à Castelsarrasin.
+Fl. Durand Martin, médecin, fondateur d'une chapellenie à Mende, en Gévaudan.
+Fl. Jean, barbier de Jean de Bellevesvre, seigneur de Chay.
+1305-1309 : fl. Jean de Fonte, médecin de Marguerite de France, reine d'Angleterre.
+1305-1322 : fl. Guillaume de Brescia (de), médecin du pape Clément V à Avignon, auteur de Questiones de tyriaca (« Questions sur la thériaque ») influencées par Arnaud de Villeneuve.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1305 : Thomas del Garbo (mort en 1370), professeur de médecine à Pérouse et à Bologne, ami de Pétrarque, fils de Dino del Garbo[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1305 : Thomas del Garbo (mort en 1370), professeur de médecine à Pérouse et à Bologne, ami de Pétrarque, fils de Dino del Garbo.</t>
         </is>
       </c>
     </row>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1305_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1305_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,9 +663,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1305 ou 1306 : Jacob ibn Tibbon (né vers 1236), astronome, médecin et traducteur juif provençal[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1305 ou 1306 : Jacob ibn Tibbon (né vers 1236), astronome, médecin et traducteur juif provençal.</t>
         </is>
       </c>
     </row>
